--- a/doc/MAILBOX_MSGTYPE3.0.xlsx
+++ b/doc/MAILBOX_MSGTYPE3.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>client to server:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,22 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CARD_STOLEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>client抽取的牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动牌 取而用之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行动牌 丢弃，交换所有物，偷窃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家编号+additional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0:所有物全部更新。1：所有物增加的信息。2：所有物减少的信息</t>
   </si>
   <si>
@@ -466,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取而用之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHOOSE_KEEPER_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +499,14 @@
   </si>
   <si>
     <t>行动牌 交换手牌,取而用之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取而用之，交换手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,7 +903,7 @@
         <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -936,20 +920,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
@@ -1008,13 +978,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1022,29 +992,29 @@
         <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1147,7 +1117,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
         <v>58</v>
@@ -1236,7 +1206,7 @@
         <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1262,7 +1232,7 @@
         <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1336,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
@@ -1348,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,66 +1358,52 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
